--- a/Pdf/Input/NOMBRES.xlsx
+++ b/Pdf/Input/NOMBRES.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ecamp\SSCO\Herramientas Python\Pdf\Input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ECG\Devs\Python_Tools\Pdf\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FCBF79C-1FDE-4A8E-8BAB-96086FE20F1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C982DD9-1F2C-4664-B9AE-AD072CAFD5B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3C9D9DED-79A8-4082-AC9E-CC640DA9C12E}"/>
   </bookViews>
@@ -36,351 +36,975 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="115">
-  <si>
-    <t>Diego Emiliano Rodríguez Meneses</t>
-  </si>
-  <si>
-    <t>Fluvio Ugo Guerra Lemus</t>
-  </si>
-  <si>
-    <t>Miguel Copil Estrada Ramírez</t>
-  </si>
-  <si>
-    <t>Ana María Cuellar Pámanes</t>
-  </si>
-  <si>
-    <t>Raúl Adrián Huerta Rodríguez</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="323">
   <si>
     <t>Arnoldo Armenta Traslaviña</t>
   </si>
   <si>
-    <t>Erick Alejandro Ochoa Lozano</t>
-  </si>
-  <si>
-    <t>Mauricio Martínez Sánchez</t>
-  </si>
-  <si>
-    <t>Ann Karen Moyotl Muñoz</t>
-  </si>
-  <si>
-    <t>Caroline Fuentes Santiago</t>
-  </si>
-  <si>
-    <t>Daniel Ibarra Cruz</t>
-  </si>
-  <si>
-    <t>Alejandra Pérez Ortega</t>
-  </si>
-  <si>
-    <t>Félix Iván García Bustos</t>
-  </si>
-  <si>
-    <t>Carlos Simón Gómez Valero</t>
-  </si>
-  <si>
-    <t>Israel Flores Martínez</t>
-  </si>
-  <si>
-    <t>Concepción Sarmiento Sarmiento</t>
-  </si>
-  <si>
-    <t>Yolanda Cid González</t>
-  </si>
-  <si>
     <t>Jorge Reséndiz Oloarte</t>
   </si>
   <si>
-    <t>Ariel Benjamín Medina Olvera</t>
-  </si>
-  <si>
-    <t>Roberto Viesca Dorantes</t>
-  </si>
-  <si>
-    <t>Francisco Ramírez Vigil</t>
-  </si>
-  <si>
-    <t>Israel Palazuelos Covarrubias</t>
-  </si>
-  <si>
-    <t>Danielle</t>
-  </si>
-  <si>
-    <t>Gilberto Martínez Padilla</t>
-  </si>
-  <si>
-    <t>Jorge Pablo Velázquez Espinosa</t>
-  </si>
-  <si>
-    <t>Paola Isamar Gutiérrez Arellano</t>
-  </si>
-  <si>
-    <t>Jorge Alberto Santos López</t>
-  </si>
-  <si>
-    <t>Alfonso Alejandro Pérez Ortiz</t>
-  </si>
-  <si>
-    <t>Mario Antonio Revilla Campos</t>
-  </si>
-  <si>
-    <t>Alfredo Sainez Araiza</t>
-  </si>
-  <si>
     <t>Carlos Darío Aguilar Peregrina</t>
   </si>
   <si>
-    <t>Javier Remigio Bartolo</t>
-  </si>
-  <si>
-    <t>Catalina Suárez Pérez</t>
-  </si>
-  <si>
-    <t>Yamile Guadalupe Pérez Castillo</t>
-  </si>
-  <si>
-    <t>Viridiana Sánchez Martínez</t>
-  </si>
-  <si>
-    <t>Víctor Hugo Bustamante García</t>
-  </si>
-  <si>
-    <t>Erick Haro Amaya</t>
-  </si>
-  <si>
-    <t>Francisco Javier Viclhe Puertos</t>
-  </si>
-  <si>
-    <t>Andrea Ambario</t>
-  </si>
-  <si>
-    <t>Hugo Salgado Argueta</t>
-  </si>
-  <si>
-    <t>Salvador Becerra Peláez</t>
-  </si>
-  <si>
-    <t>Gerardo Enrique Meléndez Rojas</t>
-  </si>
-  <si>
-    <t>Eduardo Santana Alfaro</t>
-  </si>
-  <si>
     <t>Claudia Gamboa Montejano</t>
   </si>
   <si>
-    <t>Andrea Virginia Zárate Ramírez</t>
-  </si>
-  <si>
-    <t>Jonathan Mondragón Martínez</t>
-  </si>
-  <si>
-    <t>Nashely Vianey Calderón Hernández</t>
-  </si>
-  <si>
-    <t>Luis Manuel García Martínez</t>
-  </si>
-  <si>
-    <t>Verónica Castro Flores</t>
-  </si>
-  <si>
-    <t>Adela Santos</t>
-  </si>
-  <si>
     <t>Nicolás Hernández Fernández</t>
   </si>
   <si>
-    <t>Montserrat González Montaño</t>
-  </si>
-  <si>
-    <t xml:space="preserve">José Ángel Maldonado Guzmán </t>
-  </si>
-  <si>
-    <t>Javier Campos Corrales</t>
-  </si>
-  <si>
-    <t>Javier Alejandro González Lovera</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Peña Sánchez José Ángel </t>
-  </si>
-  <si>
-    <t>Rocío Morales Álvarez</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Francisco Xavier Hernández Suarez </t>
-  </si>
-  <si>
-    <t>Miguel Ángel Duran Barradas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deisy Isela Gaspar Cruz </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jerónimo Jociel Zurita Cedillo </t>
-  </si>
-  <si>
     <t>José Jesús Rodríguez Ambriz</t>
   </si>
   <si>
-    <t xml:space="preserve">Juan Antonio Vargas Juárez </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Uribe González </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Juan Manuel Mateo Corona </t>
-  </si>
-  <si>
-    <t xml:space="preserve">José Leonel Gaspar Estrella </t>
-  </si>
-  <si>
-    <t>Rodrigo Hernández Deleyja</t>
-  </si>
-  <si>
-    <t>José Alfonso Hernández Gutiérrez</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yenisbeth Rayo Serafín </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Andrea Victoria González Ávila </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alejandra Cid Del Prado Cruz </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jesús Ignacio Villalobos Santos </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reynaldo Sánchez Olvera </t>
-  </si>
-  <si>
-    <t>Rene Denis Estrada Sotelo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Francisco Javier Serrano Gómez </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iran Lizette Garduño Almaraz </t>
-  </si>
-  <si>
-    <t>Christian Iván De Los Santos Silva</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Olga Jessica Domínguez González </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paola Monserrat Luna Ramírez </t>
-  </si>
-  <si>
-    <t>Jefrey Cervantes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arturo Pérez Moreno </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Beatriz Martínez Cabrera </t>
-  </si>
-  <si>
-    <t>Esmeralda Martínez Ricardo</t>
-  </si>
-  <si>
-    <t>Paola Iglesias Galeana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deyanira Flores Salgado </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guillermina Villegas García </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Martha Del Pilar Díaz Cuevas </t>
-  </si>
-  <si>
-    <t xml:space="preserve">María Guadalupe Martínez Arana </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ciannia Paulina Flores Carreón </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mtra. Rosario Rubio Delgado </t>
-  </si>
-  <si>
-    <t>Carlos De La Cruz Hernández</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paula Reyes Cruz </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daniel Sánchez Rosas </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arely Celeste Fonseca Sánchez </t>
-  </si>
-  <si>
     <t>Héctor Iván Fernández De Castro Vargas</t>
   </si>
   <si>
-    <t xml:space="preserve">Nancy Ledesma Martínez </t>
-  </si>
-  <si>
-    <t>César Omar Morales Suárez</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Michelle Alejandra Picasso Dávila </t>
-  </si>
-  <si>
-    <t>Landy Meneses Vazquez</t>
-  </si>
-  <si>
-    <t>Daniel Ramirez Orozco</t>
-  </si>
-  <si>
-    <t>Allan Ortiz Cristóbal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Claudia González Paez </t>
-  </si>
-  <si>
-    <t>Jorge Alfonso Diaz Rios</t>
-  </si>
-  <si>
-    <t>Edit Muñoz Islas</t>
-  </si>
-  <si>
     <t>Mitchel Sánchez Navarro</t>
   </si>
   <si>
-    <t>Yasí González Monroy</t>
-  </si>
-  <si>
     <t>NombreColumna</t>
   </si>
   <si>
-    <t>Adrian Martínez Gopar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alma Delia Martínez Dionicio </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Claudia Yessica Flores Dominguez </t>
-  </si>
-  <si>
-    <t>Emilio Ajuech Vázquez</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Martha Yareli Rodríguez Chávez </t>
-  </si>
-  <si>
-    <t>Sergio Eduardo Sandoval Ávila</t>
-  </si>
-  <si>
-    <t>Victor Rumaya Farrera</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wendy Dariana Pablo Gómez </t>
+    <t>Jorge Aurelio García Suárez</t>
+  </si>
+  <si>
+    <t>Laura Angelica Alcalá Mesillas</t>
+  </si>
+  <si>
+    <t>Luis Andrés Cano Silva</t>
+  </si>
+  <si>
+    <t>Carlos Castillo Franco</t>
+  </si>
+  <si>
+    <t>Mario Alejandro Santiago Vargas</t>
+  </si>
+  <si>
+    <t>Juanita Sierra Carmona</t>
+  </si>
+  <si>
+    <t>ISAAC FUENTES SIBAJA</t>
+  </si>
+  <si>
+    <t>Brandon Alejandro Ante Vargas</t>
+  </si>
+  <si>
+    <t>Juan Carlos Gaytán Troche</t>
+  </si>
+  <si>
+    <t>Norma Enriqueta Castillo Zarate</t>
+  </si>
+  <si>
+    <t>José Ramón Muñoz Galván</t>
+  </si>
+  <si>
+    <t>César Gómez Llamas</t>
+  </si>
+  <si>
+    <t>Beatriz Alejandra Jiménez Pineda</t>
+  </si>
+  <si>
+    <t>Analucía Rodríguez Prado</t>
+  </si>
+  <si>
+    <t>Pedro Ángel Pérez Camacho</t>
+  </si>
+  <si>
+    <t>Paloma Guadalupe Sierra Esparza</t>
+  </si>
+  <si>
+    <t>Alejandro Iván Bretón Vázquez</t>
+  </si>
+  <si>
+    <t>Ma. Magdalena Guzmán Fernández</t>
+  </si>
+  <si>
+    <t>Tatiana Dorado Mejia</t>
+  </si>
+  <si>
+    <t>Francisco Javier Teniente Mendoza</t>
+  </si>
+  <si>
+    <t>CARLOS CERRITOS RODRÍGUEZ</t>
+  </si>
+  <si>
+    <t>Maria Fernanda Aboytes Sosa</t>
+  </si>
+  <si>
+    <t>Samuel Isaí Castelán Puerto</t>
+  </si>
+  <si>
+    <t>Jonatha Jesús López Rodríguez</t>
+  </si>
+  <si>
+    <t>Jennifer Bernardino Salazar</t>
+  </si>
+  <si>
+    <t>Rosa Elena Saldaña Avila</t>
+  </si>
+  <si>
+    <t>Juan Luis Serrano Lerma</t>
+  </si>
+  <si>
+    <t>Adriana Rodriguez Teniente</t>
+  </si>
+  <si>
+    <t>Iván Alejandro Melgar Robles</t>
+  </si>
+  <si>
+    <t>Jesus Serrano Cantador</t>
+  </si>
+  <si>
+    <t>Ana Paulina Sanchez lopez</t>
+  </si>
+  <si>
+    <t>Reynaldo Sánchez Olvera</t>
+  </si>
+  <si>
+    <t>Berenice kikimora mayen aguilar</t>
+  </si>
+  <si>
+    <t>Jonathan Uzziel Flores Montiel</t>
+  </si>
+  <si>
+    <t>María Fernanda Sánchez Martínez</t>
+  </si>
+  <si>
+    <t>José Francisco Bautista Trejo</t>
+  </si>
+  <si>
+    <t>RAFAEL ALEJANDRO PRIETO CARRILLO</t>
+  </si>
+  <si>
+    <t>Manuel Pereyra Estrada.</t>
+  </si>
+  <si>
+    <t>César Torres Alcántara</t>
+  </si>
+  <si>
+    <t>José Gabriel Pech Pat</t>
+  </si>
+  <si>
+    <t>Octavio Arias Pérez</t>
+  </si>
+  <si>
+    <t>Yadira Elizabeth Flores Suárez</t>
+  </si>
+  <si>
+    <t>Jorge Romero Corona</t>
+  </si>
+  <si>
+    <t>Patricia Nayeli Copado Gonzalez</t>
+  </si>
+  <si>
+    <t>José Domingo Núñez Rojas</t>
+  </si>
+  <si>
+    <t>Francisco Xavier Hernández Suarez</t>
+  </si>
+  <si>
+    <t>Guillermo Manuel García Hernández</t>
+  </si>
+  <si>
+    <t>MIGUEL ANGEL ROMERO BELLO</t>
+  </si>
+  <si>
+    <t>Ulises Contreras Fuentes</t>
+  </si>
+  <si>
+    <t>Patricia Guadalupe Juárez Herrera</t>
+  </si>
+  <si>
+    <t>Mónica Guadalupe Vargas Gómez</t>
+  </si>
+  <si>
+    <t>Arturo Gilberto Cadena López</t>
+  </si>
+  <si>
+    <t>Maria Jose Diaz Badillo</t>
+  </si>
+  <si>
+    <t>Salma Sarai Monge García</t>
+  </si>
+  <si>
+    <t>ALEJANDRA GARCIA REMEDIOS</t>
+  </si>
+  <si>
+    <t>Agustín Ulises Alva Hernández</t>
+  </si>
+  <si>
+    <t>Montserrat Zaragoza tapia</t>
+  </si>
+  <si>
+    <t>Marco Alfonso Ruiz Ramirez</t>
+  </si>
+  <si>
+    <t>Emmanuel Guadalupe Palacios Rangel</t>
+  </si>
+  <si>
+    <t>Carlos Alberto Flores Rivera</t>
+  </si>
+  <si>
+    <t>Jose fernando ponce hernandez</t>
+  </si>
+  <si>
+    <t>Arsenio Alejandro Hernández Moya</t>
+  </si>
+  <si>
+    <t>Itzayana Marina González Carmona</t>
+  </si>
+  <si>
+    <t>Keila Abigail Arredondo Morales</t>
+  </si>
+  <si>
+    <t>Laura Angélica Padilla González</t>
+  </si>
+  <si>
+    <t>Elizabeth Guzmán Aguirre</t>
+  </si>
+  <si>
+    <t>Karina Xuchitl Gonzalez</t>
+  </si>
+  <si>
+    <t>Adriana Estrada trejo</t>
+  </si>
+  <si>
+    <t>Lucia González Ordoñez</t>
+  </si>
+  <si>
+    <t>José Gonzalo Valderrama Sánchez</t>
+  </si>
+  <si>
+    <t>Alan Jair Pacheco Farrera</t>
+  </si>
+  <si>
+    <t>Pablo Tecuanhuey Teapila</t>
+  </si>
+  <si>
+    <t>Martha Erika Guerrero Barriga</t>
+  </si>
+  <si>
+    <t>Tania Paola Martínez Chávez</t>
+  </si>
+  <si>
+    <t>Ma. Del Rosario Calzada Trejo</t>
+  </si>
+  <si>
+    <t>Isaac Asaf Chablé Chablé</t>
+  </si>
+  <si>
+    <t>oscar jorge raya martinez</t>
+  </si>
+  <si>
+    <t>Jasubileth Gomez murillo</t>
+  </si>
+  <si>
+    <t>Raúl Tobon Macias</t>
+  </si>
+  <si>
+    <t>Patricia García Martínez</t>
+  </si>
+  <si>
+    <t>Claudia Olmos Gómez</t>
+  </si>
+  <si>
+    <t>José Gabriel Guzmán Cabrera</t>
+  </si>
+  <si>
+    <t>Néstor Oliver González Nava</t>
+  </si>
+  <si>
+    <t>José Luis González de la Cruz</t>
+  </si>
+  <si>
+    <t>Ma. Arisbeth García Monjaras</t>
+  </si>
+  <si>
+    <t>Heriberto Lopez Vargas</t>
+  </si>
+  <si>
+    <t>ANNA KAREN ROMERO GARCÍA</t>
+  </si>
+  <si>
+    <t>José Raúl Jiménez San Elias</t>
+  </si>
+  <si>
+    <t>Luis Daniel González Cuevas</t>
+  </si>
+  <si>
+    <t>Ana Jazmin Benitez San Elias</t>
+  </si>
+  <si>
+    <t>Milton Giovanny Quintana Ramírez</t>
+  </si>
+  <si>
+    <t>Juan Carlos Rodríguez Cantor</t>
+  </si>
+  <si>
+    <t>RAQUEL GONZÁLEZ GONZÁLEZ</t>
+  </si>
+  <si>
+    <t>Eduardo Berber Mejía</t>
+  </si>
+  <si>
+    <t>Julián Castillo Tenorio</t>
+  </si>
+  <si>
+    <t>OCTAVIO DANIEL GONZALEZ SALINAS</t>
+  </si>
+  <si>
+    <t>Dulce Concepción Becerril López</t>
+  </si>
+  <si>
+    <t>Victor Hugo Serrano Morales</t>
+  </si>
+  <si>
+    <t>Jesús Antonio González García</t>
+  </si>
+  <si>
+    <t>Gabriela Alexia Chavarria Ortiz</t>
+  </si>
+  <si>
+    <t>Maria Guadalupe Briseño Gudiño</t>
+  </si>
+  <si>
+    <t>Carlos Valentín Martínez Martínez</t>
+  </si>
+  <si>
+    <t>Yenny González Galindo</t>
+  </si>
+  <si>
+    <t>Carlos Arturo Díaz Espinoza</t>
+  </si>
+  <si>
+    <t>Gabriel Cano Urdiano</t>
+  </si>
+  <si>
+    <t>Victoria Esmeralda Forbes Montalvo</t>
+  </si>
+  <si>
+    <t>Emilia Romero Romero</t>
+  </si>
+  <si>
+    <t>Padme Elizabeth Lugo Jiménez</t>
+  </si>
+  <si>
+    <t>Mtro. Mario Martínez Reyes</t>
+  </si>
+  <si>
+    <t>Idalia Alejandra Ledesma Cid de León</t>
+  </si>
+  <si>
+    <t>Daniel Harim Coronado Aguilar</t>
+  </si>
+  <si>
+    <t>María del Carmen Cuervo Fernandez</t>
+  </si>
+  <si>
+    <t>Regina Michelle Domínguez Pérez</t>
+  </si>
+  <si>
+    <t>MARIA GUADALUPE CRUZ MAR</t>
+  </si>
+  <si>
+    <t>LIC. Eduardo Leonel Marquina Pérez</t>
+  </si>
+  <si>
+    <t>Israel Mancera Gálvez</t>
+  </si>
+  <si>
+    <t>Martin Cuevas Medoza</t>
+  </si>
+  <si>
+    <t>Francisco Ballesteros Gallegos</t>
+  </si>
+  <si>
+    <t>Raul Pérez Mata</t>
+  </si>
+  <si>
+    <t>Isaura Martha Figueroa Bustos</t>
+  </si>
+  <si>
+    <t>Victor Manuel Neri Zarco</t>
+  </si>
+  <si>
+    <t>Dra. Rosario Rubio Delgado</t>
+  </si>
+  <si>
+    <t>Roberto Antonio Mendoza López</t>
+  </si>
+  <si>
+    <t>Danna Maylin Hernandez Vidal</t>
+  </si>
+  <si>
+    <t>Diego Alejandro Gómez Rodríguez</t>
+  </si>
+  <si>
+    <t>Claudia Beatriz Herrera Guzmán</t>
+  </si>
+  <si>
+    <t>Roberto Alberto Vera</t>
+  </si>
+  <si>
+    <t>Jaqueline Blas Flores</t>
+  </si>
+  <si>
+    <t>Alexia López Uriarte</t>
+  </si>
+  <si>
+    <t>LIC. BRENDA GUADALUPE GÁLVEZ RIVAS</t>
+  </si>
+  <si>
+    <t>Clara Campos Fajardo</t>
+  </si>
+  <si>
+    <t>Omar Rivera Lugo</t>
+  </si>
+  <si>
+    <t>Eber Garibay García</t>
+  </si>
+  <si>
+    <t>Christian Agúndez Gómez</t>
+  </si>
+  <si>
+    <t>Liliana Carrillo Mendoza</t>
+  </si>
+  <si>
+    <t>Andrés Martín Bahena Martínez</t>
+  </si>
+  <si>
+    <t>JUAN FRANCISCO CARACHEO DELGADO</t>
+  </si>
+  <si>
+    <t>Itzel Pacheco Navia</t>
+  </si>
+  <si>
+    <t>Diana Elena García Sánchez</t>
+  </si>
+  <si>
+    <t>christian Hernandez Morales</t>
+  </si>
+  <si>
+    <t>Maria del Carmen Balderas Mendoza</t>
+  </si>
+  <si>
+    <t>Claudia Angélica García López</t>
+  </si>
+  <si>
+    <t>Margarita Flores Martínez</t>
+  </si>
+  <si>
+    <t>Rossana Carol Paulina Gallardo Matias</t>
+  </si>
+  <si>
+    <t>Pablo Alonso Ripoll</t>
+  </si>
+  <si>
+    <t>Verónica Leticia Reséndiz Blanco</t>
+  </si>
+  <si>
+    <t>Xochitl Mata Mejia</t>
+  </si>
+  <si>
+    <t>lic. maricela santiago hernandez</t>
+  </si>
+  <si>
+    <t>Jesús Manuel Méndez Martínez</t>
+  </si>
+  <si>
+    <t>Verónica Denisse López Alonso</t>
+  </si>
+  <si>
+    <t>Francisco Javier cruz cruz</t>
+  </si>
+  <si>
+    <t>Antonio López Rivera</t>
+  </si>
+  <si>
+    <t>Arnoldo Alberto Renteria Santana</t>
+  </si>
+  <si>
+    <t>Mónica Berenice Zamora León</t>
+  </si>
+  <si>
+    <t>Alejandra Gasca Melchor</t>
+  </si>
+  <si>
+    <t>José Luis Medina Guapo</t>
+  </si>
+  <si>
+    <t>Luis Fernando Encarnación Rivera</t>
+  </si>
+  <si>
+    <t>Ernesto Sánchez Otañez</t>
+  </si>
+  <si>
+    <t>José Luis Mozqueda Vázquez</t>
+  </si>
+  <si>
+    <t>Edwin Alan Mancha Contreras</t>
+  </si>
+  <si>
+    <t>Daniel Rodriguez Toledo</t>
+  </si>
+  <si>
+    <t>Mario Alberto Barroso Chavez</t>
+  </si>
+  <si>
+    <t>YADIRA MATEO ROSADO</t>
+  </si>
+  <si>
+    <t>Francisco Ac Mendoza</t>
+  </si>
+  <si>
+    <t>Patricia Karina Ponce Vera</t>
+  </si>
+  <si>
+    <t>José Luis Gutiérrez Crespo</t>
+  </si>
+  <si>
+    <t>Wendy Omaña Acevedo</t>
+  </si>
+  <si>
+    <t>Enrique Arturo Mayorquin</t>
+  </si>
+  <si>
+    <t>GABRIEL DÍAZ PULIDO</t>
+  </si>
+  <si>
+    <t>Juan Angel Rodríguez Martinez</t>
+  </si>
+  <si>
+    <t>JOSE FRANCISCO GONZALEZ LOPEZ</t>
+  </si>
+  <si>
+    <t>Berenice Sánchez Herández</t>
+  </si>
+  <si>
+    <t>Dr. Alfredo Sainez Araiza</t>
+  </si>
+  <si>
+    <t>José Felicitos Cadena del Angel</t>
+  </si>
+  <si>
+    <t>Jazmín Villar Vásquez</t>
+  </si>
+  <si>
+    <t>Gerardo Martinez Chavez</t>
+  </si>
+  <si>
+    <t>Jesus Eduardo Luna Ordoñez</t>
+  </si>
+  <si>
+    <t>Crispín González González</t>
+  </si>
+  <si>
+    <t>Gerson Castillo Frias</t>
+  </si>
+  <si>
+    <t>Yessica Valderrama Cernas</t>
+  </si>
+  <si>
+    <t>Ali Flores Ramírez</t>
+  </si>
+  <si>
+    <t>J. JESUS AVALOS GARCIA</t>
+  </si>
+  <si>
+    <t>Javier Yañez Chavez</t>
+  </si>
+  <si>
+    <t>Citlali García Gasca</t>
+  </si>
+  <si>
+    <t>Ariadne nenclares Pitol</t>
+  </si>
+  <si>
+    <t>Erandy Fabiola Bernal Gutiérrez</t>
+  </si>
+  <si>
+    <t>Macarena Ramos Fierro</t>
+  </si>
+  <si>
+    <t>JERONIMO JOCIEL ZURITA CEDILLO</t>
+  </si>
+  <si>
+    <t>MARÍA DEL CARMEN SERRANO PÉREZ</t>
+  </si>
+  <si>
+    <t>OMAR SADOC LOPEZ GUTIERREZ</t>
+  </si>
+  <si>
+    <t>Miguel Angel Solís Salinas</t>
+  </si>
+  <si>
+    <t>Sandra Julieta Betanzos Benítez</t>
+  </si>
+  <si>
+    <t>Aidé Jaraleño Pescador</t>
+  </si>
+  <si>
+    <t>Grecia Alexandra Flores Hernandez</t>
+  </si>
+  <si>
+    <t>Perla Marina Galindo Conde</t>
+  </si>
+  <si>
+    <t>JOSE SANTIAGO PERULERO HERNANDEZ</t>
+  </si>
+  <si>
+    <t>Nidia Mariana López Murillo</t>
+  </si>
+  <si>
+    <t>Roberto Mahatmagandhi Pérez González</t>
+  </si>
+  <si>
+    <t>Marina Martínez Romero</t>
+  </si>
+  <si>
+    <t>Abel Rodríguez Hernández</t>
+  </si>
+  <si>
+    <t>MANUEL TELLO VALDERRAMA</t>
+  </si>
+  <si>
+    <t>Fabiola Marlene Mérida Vélez</t>
+  </si>
+  <si>
+    <t>Carol Gaby Jafit Cortez Muñoz</t>
+  </si>
+  <si>
+    <t>Regina Amparo Esparragoza Zárate</t>
+  </si>
+  <si>
+    <t>Braulia Nava Hernández</t>
+  </si>
+  <si>
+    <t>Sonia Cortés Reyes</t>
+  </si>
+  <si>
+    <t>David López Cerqueda</t>
+  </si>
+  <si>
+    <t>Brenda Rodriguez Marcial</t>
+  </si>
+  <si>
+    <t>MARISELA MONTAÑO PERALTA</t>
+  </si>
+  <si>
+    <t>Nancy Ledesma Martínez</t>
+  </si>
+  <si>
+    <t>Patricia Avila Loya</t>
+  </si>
+  <si>
+    <t>EMMANUEL CORTÉS MORALES</t>
+  </si>
+  <si>
+    <t>Yaretzi Lizbeth Zumaya Hernandez</t>
+  </si>
+  <si>
+    <t>JUANA ORTIZ CRUZ</t>
+  </si>
+  <si>
+    <t>David Jonatan Ramírez García</t>
+  </si>
+  <si>
+    <t>JOSE ALEJANDRO CALIXTO GUTIERREZ</t>
+  </si>
+  <si>
+    <t>Isis Abib Aguilar Sánchez</t>
+  </si>
+  <si>
+    <t>Polo Rodríguez Castro</t>
+  </si>
+  <si>
+    <t>José jesus ramos zamora</t>
+  </si>
+  <si>
+    <t>Miguel Eloy García Lara</t>
+  </si>
+  <si>
+    <t>Jhoana Ximena Islas Santillan</t>
+  </si>
+  <si>
+    <t>José Antonio Guadián Cortés</t>
+  </si>
+  <si>
+    <t>Sandra Yañez Lavín</t>
+  </si>
+  <si>
+    <t>Alonso Sadok Salazar Ahuat</t>
+  </si>
+  <si>
+    <t>Clemente Aspinoza Alvarado</t>
+  </si>
+  <si>
+    <t>HERMILO QUIRINO ESCOBAR</t>
+  </si>
+  <si>
+    <t>Diana Guadalupe Castillo Martínez</t>
+  </si>
+  <si>
+    <t>Asael Ortiz Vázquez</t>
+  </si>
+  <si>
+    <t>PEDRO GARCÍA HUERTA</t>
+  </si>
+  <si>
+    <t>Michelle Patricia Romero Martínez</t>
+  </si>
+  <si>
+    <t>Jorge Adrian Salinas Cruz</t>
+  </si>
+  <si>
+    <t>Jesús Manuel Reyes Millán</t>
+  </si>
+  <si>
+    <t>Ana Karina Aguirre Joven</t>
+  </si>
+  <si>
+    <t>José de Jesús González Rodríguez</t>
+  </si>
+  <si>
+    <t>Ma.del Carmen Ramos Castañon</t>
+  </si>
+  <si>
+    <t>Rocío Cabrera Cantero</t>
+  </si>
+  <si>
+    <t>José Luis Hernández Martínez</t>
+  </si>
+  <si>
+    <t>Ramón Gabriel García Martínez</t>
+  </si>
+  <si>
+    <t>Santiago Guerra Tovar</t>
+  </si>
+  <si>
+    <t>Oscar Reyes López</t>
+  </si>
+  <si>
+    <t>Beatriz Martinez Cabrera</t>
+  </si>
+  <si>
+    <t>Julia Guadalupe Martinez Ramos</t>
+  </si>
+  <si>
+    <t>Venancio Ernesto Cruz Lopez</t>
+  </si>
+  <si>
+    <t>JAZMIN ANABEL CARMONA CORNEJO</t>
+  </si>
+  <si>
+    <t>Samuel Rodriguez Serrano</t>
+  </si>
+  <si>
+    <t>María de Jesús Muñoz Perez</t>
+  </si>
+  <si>
+    <t>Elizabeth Marisol Fuentes Ramírez</t>
+  </si>
+  <si>
+    <t>Perla Argelia Anaya Patiño</t>
+  </si>
+  <si>
+    <t>Amalinalitzin García Gasca</t>
+  </si>
+  <si>
+    <t>Irlanda Linette Garnica Resendiz</t>
+  </si>
+  <si>
+    <t>Diego Alejandro Rivera Rivera</t>
+  </si>
+  <si>
+    <t>Moisés López Cerqueda</t>
+  </si>
+  <si>
+    <t>Brenda Valeria Alcántara Cedillo</t>
+  </si>
+  <si>
+    <t>Fernando Ponce Medina</t>
+  </si>
+  <si>
+    <t>Luis Eduardo Enriquez Chico</t>
+  </si>
+  <si>
+    <t>Regidor Jose Fernando s. Priego Vazquez</t>
+  </si>
+  <si>
+    <t>José Ángel Arrieta Pineda</t>
+  </si>
+  <si>
+    <t>Luis Fernando Delgado Trejo</t>
+  </si>
+  <si>
+    <t>MARISOL LUNA TORRES</t>
+  </si>
+  <si>
+    <t>Santiago Emmanuel De la Vega Martínez</t>
+  </si>
+  <si>
+    <t>Maria Esther González Santiago</t>
+  </si>
+  <si>
+    <t>José Baruc López Ramírez</t>
+  </si>
+  <si>
+    <t>Sergio Alejandro Sepúlveda Murillo</t>
+  </si>
+  <si>
+    <t>Martha Yareli Rodriguez Chavez</t>
+  </si>
+  <si>
+    <t>Gloria del carmen Vera Castillo</t>
+  </si>
+  <si>
+    <t>Makhan Rodriguez Noyola</t>
+  </si>
+  <si>
+    <t>LAURA PAMPLONA FLORED</t>
+  </si>
+  <si>
+    <t>Anabel Arellano Villafuerte</t>
+  </si>
+  <si>
+    <t>Leda Itzel Méndez Pérez</t>
+  </si>
+  <si>
+    <t>Concepción Jacqueline Argueta Ledesma</t>
+  </si>
+  <si>
+    <t>Audrey Astrid Cerqueda Atilano</t>
+  </si>
+  <si>
+    <t>Lisette Prudente Baños</t>
+  </si>
+  <si>
+    <t>Dip. Miriam Reyes Carmona</t>
+  </si>
+  <si>
+    <t>Carlos Enrique Anguiano García</t>
+  </si>
+  <si>
+    <t>José Luis Alvarez Alfaro</t>
+  </si>
+  <si>
+    <t>Grecia Velasco Jiménez</t>
+  </si>
+  <si>
+    <t>Luis Ángel Luna Vargas</t>
+  </si>
+  <si>
+    <t>Baldomero Cerqueda Carrera</t>
+  </si>
+  <si>
+    <t>Brenda Vera Jimenez</t>
+  </si>
+  <si>
+    <t>Alma Delia Martinez Dionicio</t>
+  </si>
+  <si>
+    <t>Juan David Bautista Velázquez</t>
+  </si>
+  <si>
+    <t>JAVIER LEONARDO RIVERA LUNA</t>
+  </si>
+  <si>
+    <t>Nélida Dolores de Martina Alfaro Rosas</t>
+  </si>
+  <si>
+    <t>Anabel Valencia Gutiérrez</t>
+  </si>
+  <si>
+    <t>Liliana Flores Martínez</t>
+  </si>
+  <si>
+    <t>Brenda Jessica Berumen Viramontes</t>
+  </si>
+  <si>
+    <t>Jazmin Araceli Rodríguez chavez</t>
+  </si>
+  <si>
+    <t>Verónica Elizabeth Ortiz Altamirano</t>
+  </si>
+  <si>
+    <t>José Manuel Larumbe Pineda</t>
+  </si>
+  <si>
+    <t>Diego Emiliano Rodriguez Meneses</t>
+  </si>
+  <si>
+    <t>Carmen Ignacio Alvarez</t>
+  </si>
+  <si>
+    <t>Libia Rojas Reyes</t>
+  </si>
+  <si>
+    <t>Hilda Austrebertha Escobedo Navarro</t>
+  </si>
+  <si>
+    <t>Lenin Escobar Pérez</t>
+  </si>
+  <si>
+    <t>LUIS EDUARDO RICO PEDRAZA</t>
+  </si>
+  <si>
+    <t>Griselda Guadalupe Editti Martínez</t>
+  </si>
+  <si>
+    <t>ALONSO ROJAS LIA</t>
+  </si>
+  <si>
+    <t>Salvador López Quintana</t>
+  </si>
+  <si>
+    <t>Marco Antonio Teco Frias</t>
+  </si>
+  <si>
+    <t>Letty Carreño Abarca</t>
+  </si>
+  <si>
+    <t>José Manuel guerrero Aviles</t>
+  </si>
+  <si>
+    <t>Israel Eslava Maceda</t>
+  </si>
+  <si>
+    <t>Azalia Betsabé Mendoza Cárdenas</t>
+  </si>
+  <si>
+    <t>Pablo Francisco Santiago Torres</t>
+  </si>
+  <si>
+    <t>Verenice María Maritza González Tapia.</t>
+  </si>
+  <si>
+    <t>Luis Ramón Montalvo García</t>
+  </si>
+  <si>
+    <t>Alexis Román Román</t>
+  </si>
+  <si>
+    <t>Fernando Tlacocuentla Texis</t>
+  </si>
+  <si>
+    <t>Coral Ninet Valencia Urbina</t>
+  </si>
+  <si>
+    <t>Iván Arturo Pérez Rivera</t>
+  </si>
+  <si>
+    <t>ALMA EDITH TORRES DE LA TORRE</t>
+  </si>
+  <si>
+    <t>Juan Manuel Rodríguez Hernández</t>
+  </si>
+  <si>
+    <t>DIEGO ESAU MORALES BRAVO</t>
+  </si>
+  <si>
+    <t>Caleb Gamaliel Casas Chavez</t>
   </si>
 </sst>
 </file>
@@ -752,10 +1376,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4384AF11-84C7-417D-A402-9C75EB6F536D}">
-  <dimension ref="A1:A115"/>
+  <dimension ref="A1:A323"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A99" workbookViewId="0">
-      <selection activeCell="A116" sqref="A116:XFD158"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A323"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -765,577 +1389,1617 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>106</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>107</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>70</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>100</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>108</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>69</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>93</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>80</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>81</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>90</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>96</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>76</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>88</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>43</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>101</v>
+        <v>35</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>109</v>
+        <v>36</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>99</v>
+        <v>39</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>92</v>
+        <v>40</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>84</v>
+        <v>43</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>0</v>
+        <v>44</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>103</v>
+        <v>45</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>110</v>
+        <v>47</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>6</v>
+        <v>48</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>82</v>
+        <v>4</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>1</v>
+        <v>51</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>20</v>
+        <v>54</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>23</v>
+        <v>57</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>85</v>
+        <v>58</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>94</v>
+        <v>59</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>14</v>
+        <v>62</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>31</v>
+        <v>66</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>45</v>
+        <v>70</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>26</v>
+        <v>71</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>102</v>
+        <v>72</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>24</v>
+        <v>73</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>17</v>
+        <v>74</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>52</v>
+        <v>76</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>47</v>
+        <v>82</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>28</v>
+        <v>84</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>111</v>
+        <v>86</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>7</v>
+        <v>87</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>58</v>
+        <v>89</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>2</v>
+        <v>90</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>51</v>
+        <v>92</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>46</v>
+        <v>95</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>50</v>
+        <v>96</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>77</v>
+        <v>97</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>25</v>
+        <v>98</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>78</v>
+        <v>99</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>55</v>
+        <v>102</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>4</v>
+        <v>103</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>73</v>
+        <v>104</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>72</v>
+        <v>105</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>19</v>
+        <v>106</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>56</v>
+        <v>107</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>66</v>
+        <v>108</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>40</v>
+        <v>109</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>63</v>
+        <v>111</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>35</v>
+        <v>113</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>34</v>
+        <v>115</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>33</v>
+        <v>117</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>68</v>
+        <v>5</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>16</v>
+        <v>119</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A264" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A265" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A266" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A267" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A268" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A269" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A270" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A271" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A272" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A273" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A274" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A275" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A276" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A277" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A278" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A279" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A280" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A281" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A282" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A283" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A284" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A285" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A286" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A287" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A288" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A289" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A290" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A291" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A292" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A293" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A294" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A295" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="296" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A296" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A297" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="298" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A298" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="299" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A299" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="300" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A300" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="301" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A301" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="302" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A302" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="303" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A303" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="304" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A304" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="305" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A305" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="306" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A306" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="307" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A307" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="308" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A308" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="309" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A309" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="310" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A310" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="311" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A311" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="312" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A312" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="313" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A313" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="314" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A314" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="315" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A315" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="316" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A316" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="317" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A317" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="318" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A318" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="319" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A319" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="320" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A320" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="321" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A321" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="322" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A322" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="323" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A323" t="s">
+        <v>322</v>
       </c>
     </row>
   </sheetData>
